--- a/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/TomasMoviles.xlsx
+++ b/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/TomasMoviles.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\LogicTracker\Logictracker\Logictracker\src\Web\Logictracker\Logictracker.Web\ExcelTemplate\Logictracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,6 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Informe!$A$7:$M$7</definedName>
     <definedName name="Centro_de_Costos">Informe!#REF!</definedName>
-    <definedName name="DATE">Informe!$I$7</definedName>
     <definedName name="ESQUINA">Informe!#REF!</definedName>
     <definedName name="ESTADO_STR">Informe!$A$7</definedName>
     <definedName name="ESTADO_VEHICULO">Informe!$D$7</definedName>
@@ -33,6 +32,7 @@
     <definedName name="REFFERENCE">Informe!$F$7</definedName>
     <definedName name="TIEMPO_A_ULTIMO_LOGIN">Informe!$K$7</definedName>
     <definedName name="Titulo">Informe!$C$1</definedName>
+    <definedName name="ULTIMA_POSICION_GPS">Informe!$I$7</definedName>
     <definedName name="ULTIMO_LOGIN">Informe!$G$7</definedName>
     <definedName name="VELOCIDAD_KM">Informe!$J$7</definedName>
   </definedNames>

--- a/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/TomasMoviles.xlsx
+++ b/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/TomasMoviles.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\LogicTracker\Logictracker\Logictracker\src\Web\Logictracker\Logictracker.Web\ExcelTemplate\Logictracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias Alfano\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
     <definedName name="REFFERENCE">Informe!$F$7</definedName>
     <definedName name="TIEMPO_A_ULTIMO_LOGIN">Informe!$K$7</definedName>
     <definedName name="Titulo">Informe!$C$1</definedName>
-    <definedName name="ULTIMA_POSICION_GPS">Informe!$I$7</definedName>
+    <definedName name="ULTIMA_POSICION">Informe!$I$7</definedName>
     <definedName name="ULTIMO_LOGIN">Informe!$G$7</definedName>
     <definedName name="VELOCIDAD_KM">Informe!$J$7</definedName>
   </definedNames>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:T2150"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/TomasMoviles.xlsx
+++ b/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/TomasMoviles.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias Alfano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias Alfano\Source\Repos\Logictracker 4.0\Logictracker\Logictracker\src\Web\Logictracker\Logictracker.Web\ExcelTemplate\Logictracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
     <definedName name="REFFERENCE">Informe!$F$7</definedName>
     <definedName name="TIEMPO_A_ULTIMO_LOGIN">Informe!$K$7</definedName>
     <definedName name="Titulo">Informe!$C$1</definedName>
-    <definedName name="ULTIMA_POSICION">Informe!$I$7</definedName>
+    <definedName name="ULTIMA_POSICION_GPS">Informe!$I$7</definedName>
     <definedName name="ULTIMO_LOGIN">Informe!$G$7</definedName>
     <definedName name="VELOCIDAD_KM">Informe!$J$7</definedName>
   </definedNames>
@@ -1049,7 +1049,7 @@
   </sheetPr>
   <dimension ref="A1:T2150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
